--- a/ProjectEuler/Resources/Problem233.xlsx
+++ b/ProjectEuler/Resources/Problem233.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\ProjectEuler\ProjectEuler\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D515AC4D-5896-48A4-99E2-B7939DBBAEED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6545C1-4A38-4DB1-A27B-1FB1B035D12A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{02CF22B8-114A-463C-8915-07FA1886BADC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{02CF22B8-114A-463C-8915-07FA1886BADC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>N</t>
   </si>
@@ -50,6 +50,9 @@
   <si>
     <t>Delta</t>
   </si>
+  <si>
+    <t>factor</t>
+  </si>
 </sst>
 </file>
 
@@ -57,8 +60,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -103,17 +106,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -123,14 +127,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -715,7 +719,615 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="3175">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$H$2:$H$53</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>8381</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12675</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21470</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27455</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32487</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38675</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41384</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>48195</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50250</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>53040</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>58424</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>60047</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>62900</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>65025</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>69564</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>75140</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>80270</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>81965</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>87669</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>90675</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>92400</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>97682</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>103530</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>108375</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>110670</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>121550</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>124700</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>127041</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>134930</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>138125</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>149328</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>151725</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>156825</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>159236</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>168750</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>170625</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>173910</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>180206</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>182093</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>187850</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>199410</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>201875</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>205205</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>207110</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>213486</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>216825</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>219300</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>224553</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>230945</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$I$2:$I$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>-8092</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-9775</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-12025</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-13300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-19665</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-21250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-24565</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-28509</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-33150</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-35112</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-39865</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-41250</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-43095</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-46543</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-47554</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-49300</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-50575</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-53227</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-56355</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-59110</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-59995</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-62883</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-64350</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-65175</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-67626</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-70210</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-72250</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-73185</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-77350</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-78475</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-79288</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-81885</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-82875</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-86071</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-86700</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-87975</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-88548</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-90625</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-91000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-91630</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-92742</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-93051</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-93925</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-95370</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-95625</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-95940</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-96105</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-96577</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-96775</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-96900</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-97104</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-97240</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C285-46B3-8D05-061786D018E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="656114936"/>
+        <c:axId val="656115296"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="656114936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="656115296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="656115296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="-250000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="656114936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1271,20 +1883,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>352424</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>361949</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1306,6 +2434,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1104900</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A5DD3E0-6D35-4C7C-AAE6-D9C87CE6BBE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1613,8 +2779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE36D97-E813-4717-A9D7-0174BE4F8DFC}">
   <dimension ref="A1:AD296"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1811,7 +2977,7 @@
         <v>718250</v>
       </c>
       <c r="F3" s="5">
-        <f t="shared" ref="F3:U18" si="0">F$2*$B3</f>
+        <f t="shared" ref="F3:U17" si="0">F$2*$B3</f>
         <v>1077375</v>
       </c>
       <c r="G3" s="5">
@@ -1875,7 +3041,7 @@
         <v>6464250</v>
       </c>
       <c r="V3" s="5">
-        <f t="shared" ref="T3:AD18" si="1">V$2*$B3</f>
+        <f t="shared" ref="T3:AD4" si="1">V$2*$B3</f>
         <v>6823375</v>
       </c>
       <c r="W3" s="5">
@@ -2138,7 +3304,7 @@
         <v>169000</v>
       </c>
       <c r="E7" s="5">
-        <f t="shared" ref="E6:T21" si="2">E$2*$B7</f>
+        <f t="shared" ref="E7:I21" si="2">E$2*$B7</f>
         <v>1563250</v>
       </c>
       <c r="F7" s="5">
@@ -2941,7 +4107,7 @@
         <v>50700</v>
       </c>
       <c r="E23" s="5">
-        <f t="shared" ref="E22:T38" si="3">E$2*$B23</f>
+        <f t="shared" ref="E23:I38" si="3">E$2*$B23</f>
         <v>3185650</v>
       </c>
       <c r="F23" s="5">
@@ -11413,14 +12579,14 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E3:AD239">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>MATCH(E3,$B:$B,0)</formula>
+  <conditionalFormatting sqref="B3:D1874">
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>MATCH(B3,$E:$CB,0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:D1874">
-    <cfRule type="expression" dxfId="0" priority="3">
-      <formula>MATCH(B3,$E:$CB,0)</formula>
+  <conditionalFormatting sqref="E3:AD239">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>MATCH(E3,$B:$B,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11428,1483 +12594,76 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5928FE98-5D48-48D9-AC73-F3F7985F9C3F}">
-  <dimension ref="A1154:A1447"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAAC7F6D-7DAC-474F-AFEA-476B6CDE5B9E}">
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1154">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1">
         <v>359125</v>
       </c>
-    </row>
-    <row r="1155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1155">
-        <v>469625</v>
-      </c>
-    </row>
-    <row r="1156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1156">
-        <v>612625</v>
-      </c>
-    </row>
-    <row r="1157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1157">
+      <c r="B1">
+        <f>2*A1</f>
         <v>718250</v>
       </c>
-    </row>
-    <row r="1158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1158">
-        <v>781625</v>
-      </c>
-    </row>
-    <row r="1159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1159">
-        <v>866125</v>
-      </c>
-    </row>
-    <row r="1160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1160">
-        <v>933725</v>
-      </c>
-    </row>
-    <row r="1161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1161">
-        <v>939250</v>
-      </c>
-    </row>
-    <row r="1162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1162">
-        <v>1047625</v>
-      </c>
-    </row>
-    <row r="1163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1163">
-        <v>1077375</v>
-      </c>
-    </row>
-    <row r="1164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1164">
-        <v>1119625</v>
-      </c>
-    </row>
-    <row r="1165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1165">
-        <v>1225250</v>
-      </c>
-    </row>
-    <row r="1166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1166">
-        <v>1288625</v>
-      </c>
-    </row>
-    <row r="1167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1167">
-        <v>1336625</v>
-      </c>
-    </row>
-    <row r="1168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1168">
-        <v>1366625</v>
-      </c>
-    </row>
-    <row r="1169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1169">
-        <v>1408875</v>
-      </c>
-    </row>
-    <row r="1170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1170">
-        <v>1436500</v>
-      </c>
-    </row>
-    <row r="1171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1171">
-        <v>1481125</v>
-      </c>
-    </row>
-    <row r="1172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1172">
-        <v>1542125</v>
-      </c>
-    </row>
-    <row r="1173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1173">
-        <v>1563250</v>
-      </c>
-    </row>
-    <row r="1174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1174">
-        <v>1592825</v>
-      </c>
-    </row>
-    <row r="1175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1175">
-        <v>1596725</v>
-      </c>
-    </row>
-    <row r="1176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1176">
-        <v>1732250</v>
-      </c>
-    </row>
-    <row r="1177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1177">
-        <v>1787125</v>
-      </c>
-    </row>
-    <row r="1178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1178">
-        <v>1837875</v>
-      </c>
-    </row>
-    <row r="1179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1179">
-        <v>1867450</v>
-      </c>
-    </row>
-    <row r="1180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1180">
-        <v>1878500</v>
-      </c>
-    </row>
-    <row r="1181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1181">
-        <v>1880125</v>
-      </c>
-    </row>
-    <row r="1182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1182">
-        <v>1914625</v>
-      </c>
-    </row>
-    <row r="1183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1183">
-        <v>2032225</v>
-      </c>
-    </row>
-    <row r="1184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1184">
-        <v>2049125</v>
-      </c>
-    </row>
-    <row r="1185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1185">
-        <v>2095250</v>
-      </c>
-    </row>
-    <row r="1186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1186">
-        <v>2133625</v>
-      </c>
-    </row>
-    <row r="1187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1187">
-        <v>2154750</v>
-      </c>
-    </row>
-    <row r="1188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1188">
-        <v>2203625</v>
-      </c>
-    </row>
-    <row r="1189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1189">
-        <v>2224625</v>
-      </c>
-    </row>
-    <row r="1190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1190">
-        <v>2239250</v>
-      </c>
-    </row>
-    <row r="1191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1191">
-        <v>2251925</v>
-      </c>
-    </row>
-    <row r="1192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1192">
-        <v>2302625</v>
-      </c>
-    </row>
-    <row r="1193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1193">
-        <v>2344875</v>
-      </c>
-    </row>
-    <row r="1194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1194">
-        <v>2387125</v>
-      </c>
-    </row>
-    <row r="1195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1195">
-        <v>2450500</v>
-      </c>
-    </row>
-    <row r="1196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1196">
-        <v>2513875</v>
-      </c>
-    </row>
-    <row r="1197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1197">
-        <v>2577250</v>
-      </c>
-    </row>
-    <row r="1198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1198">
-        <v>2598375</v>
-      </c>
-    </row>
-    <row r="1199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1199">
-        <v>2637125</v>
-      </c>
-    </row>
-    <row r="1200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1200">
-        <v>2673250</v>
-      </c>
-    </row>
-    <row r="1201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1201">
-        <v>2731625</v>
-      </c>
-    </row>
-    <row r="1202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1202">
-        <v>2733250</v>
-      </c>
-    </row>
-    <row r="1203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1203">
-        <v>2801175</v>
-      </c>
-    </row>
-    <row r="1204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1204">
-        <v>2817750</v>
-      </c>
-    </row>
-    <row r="1205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1205">
-        <v>2873000</v>
-      </c>
-    </row>
-    <row r="1206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1206">
-        <v>2894125</v>
-      </c>
-    </row>
-    <row r="1207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1207">
-        <v>2909125</v>
-      </c>
-    </row>
-    <row r="1208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1208">
-        <v>2911025</v>
-      </c>
-    </row>
-    <row r="1209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1209">
-        <v>2962250</v>
-      </c>
-    </row>
-    <row r="1210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1210">
-        <v>3084250</v>
-      </c>
-    </row>
-    <row r="1211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1211">
-        <v>3126500</v>
-      </c>
-    </row>
-    <row r="1212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1212">
-        <v>3142875</v>
-      </c>
-    </row>
-    <row r="1213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1213">
-        <v>3147625</v>
-      </c>
-    </row>
-    <row r="1214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1214">
-        <v>3185650</v>
-      </c>
-    </row>
-    <row r="1215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1215">
-        <v>3193450</v>
-      </c>
-    </row>
-    <row r="1216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1216">
-        <v>3215125</v>
-      </c>
-    </row>
-    <row r="1217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1217">
-        <v>3232125</v>
-      </c>
-    </row>
-    <row r="1218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1218">
-        <v>3287375</v>
-      </c>
-    </row>
-    <row r="1219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1219">
-        <v>3316625</v>
-      </c>
-    </row>
-    <row r="1220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1220">
-        <v>3350425</v>
-      </c>
-    </row>
-    <row r="1221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1221">
-        <v>3358875</v>
-      </c>
-    </row>
-    <row r="1222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1222">
-        <v>3464500</v>
-      </c>
-    </row>
-    <row r="1223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1223">
-        <v>3504125</v>
-      </c>
-    </row>
-    <row r="1224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1224">
-        <v>3561925</v>
-      </c>
-    </row>
-    <row r="1225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1225">
-        <v>3572125</v>
-      </c>
-    </row>
-    <row r="1226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1226">
-        <v>3574250</v>
-      </c>
-    </row>
-    <row r="1227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1227">
-        <v>3648625</v>
-      </c>
-    </row>
-    <row r="1228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1228">
-        <v>3654625</v>
-      </c>
-    </row>
-    <row r="1229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1229">
-        <v>3675750</v>
-      </c>
-    </row>
-    <row r="1230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1230">
-        <v>3734900</v>
-      </c>
-    </row>
-    <row r="1231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1231">
-        <v>3757000</v>
-      </c>
-    </row>
-    <row r="1232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1232">
-        <v>3760250</v>
-      </c>
-    </row>
-    <row r="1233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1233">
-        <v>3823625</v>
-      </c>
-    </row>
-    <row r="1234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1234">
-        <v>3829250</v>
-      </c>
-    </row>
-    <row r="1235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1235">
-        <v>3865875</v>
-      </c>
-    </row>
-    <row r="1236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1236">
-        <v>3889625</v>
-      </c>
-    </row>
-    <row r="1237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1237">
-        <v>3937625</v>
-      </c>
-    </row>
-    <row r="1238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1238">
-        <v>3950375</v>
-      </c>
-    </row>
-    <row r="1239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1239">
-        <v>4009525</v>
-      </c>
-    </row>
-    <row r="1240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1240">
-        <v>4009875</v>
-      </c>
-    </row>
-    <row r="1241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1241">
-        <v>4064450</v>
-      </c>
-    </row>
-    <row r="1242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1242">
-        <v>4077125</v>
-      </c>
-    </row>
-    <row r="1243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1243">
-        <v>4082125</v>
-      </c>
-    </row>
-    <row r="1244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1244">
-        <v>4098250</v>
-      </c>
-    </row>
-    <row r="1245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1245">
-        <v>4099875</v>
-      </c>
-    </row>
-    <row r="1246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1246">
-        <v>4161625</v>
-      </c>
-    </row>
-    <row r="1247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1247">
-        <v>4190500</v>
-      </c>
-    </row>
-    <row r="1248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1248">
-        <v>4226625</v>
-      </c>
-    </row>
-    <row r="1249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1249">
-        <v>4267250</v>
-      </c>
-    </row>
-    <row r="1250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1250">
-        <v>4288375</v>
-      </c>
-    </row>
-    <row r="1251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1251">
-        <v>4309500</v>
-      </c>
-    </row>
-    <row r="1252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1252">
-        <v>4310125</v>
-      </c>
-    </row>
-    <row r="1253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1253">
-        <v>4407250</v>
-      </c>
-    </row>
-    <row r="1254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1254">
-        <v>4443375</v>
-      </c>
-    </row>
-    <row r="1255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1255">
-        <v>4449250</v>
-      </c>
-    </row>
-    <row r="1256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1256">
-        <v>4478500</v>
-      </c>
-    </row>
-    <row r="1257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1257">
-        <v>4503850</v>
-      </c>
-    </row>
-    <row r="1258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1258">
-        <v>4544525</v>
-      </c>
-    </row>
-    <row r="1259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1259">
-        <v>4564625</v>
-      </c>
-    </row>
-    <row r="1260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1260">
-        <v>4605250</v>
-      </c>
-    </row>
-    <row r="1261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1261">
-        <v>4626375</v>
-      </c>
-    </row>
-    <row r="1262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1262">
-        <v>4689750</v>
-      </c>
-    </row>
-    <row r="1263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1263">
-        <v>4774250</v>
-      </c>
-    </row>
-    <row r="1264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1264">
-        <v>4778475</v>
-      </c>
-    </row>
-    <row r="1265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1265">
-        <v>4790175</v>
-      </c>
-    </row>
-    <row r="1266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1266">
-        <v>4837625</v>
-      </c>
-    </row>
-    <row r="1267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1267">
-        <v>4888325</v>
-      </c>
-    </row>
-    <row r="1268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1268">
-        <v>4901000</v>
-      </c>
-    </row>
-    <row r="1269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1269">
-        <v>4922125</v>
-      </c>
-    </row>
-    <row r="1270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1270">
-        <v>4949125</v>
-      </c>
-    </row>
-    <row r="1271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1271">
-        <v>4962625</v>
-      </c>
-    </row>
-    <row r="1272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1272">
-        <v>5027750</v>
-      </c>
-    </row>
-    <row r="1273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1273">
-        <v>5035825</v>
-      </c>
-    </row>
-    <row r="1274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1274">
-        <v>5091125</v>
-      </c>
-    </row>
-    <row r="1275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1275">
-        <v>5154500</v>
-      </c>
-    </row>
-    <row r="1276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1276">
-        <v>5165875</v>
-      </c>
-    </row>
-    <row r="1277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1277">
-        <v>5196750</v>
-      </c>
-    </row>
-    <row r="1278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1278">
-        <v>5274250</v>
-      </c>
-    </row>
-    <row r="1279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1279">
-        <v>5327725</v>
-      </c>
-    </row>
-    <row r="1280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1280">
-        <v>5346500</v>
-      </c>
-    </row>
-    <row r="1281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1281">
-        <v>5361375</v>
-      </c>
-    </row>
-    <row r="1282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1282">
-        <v>5382625</v>
-      </c>
-    </row>
-    <row r="1283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1283">
-        <v>5429125</v>
-      </c>
-    </row>
-    <row r="1284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1284">
-        <v>5463250</v>
-      </c>
-    </row>
-    <row r="1285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1285">
-        <v>5466500</v>
-      </c>
-    </row>
-    <row r="1286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1286">
-        <v>5471375</v>
-      </c>
-    </row>
-    <row r="1287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1287">
-        <v>5513625</v>
-      </c>
-    </row>
-    <row r="1288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1288">
-        <v>5547425</v>
-      </c>
-    </row>
-    <row r="1289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1289">
-        <v>5571625</v>
-      </c>
-    </row>
-    <row r="1290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1290">
-        <v>5602350</v>
-      </c>
-    </row>
-    <row r="1291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1291">
-        <v>5635500</v>
-      </c>
-    </row>
-    <row r="1292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1292">
-        <v>5640375</v>
-      </c>
-    </row>
-    <row r="1293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1293">
-        <v>5671625</v>
-      </c>
-    </row>
-    <row r="1294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1294">
-        <v>5682625</v>
-      </c>
-    </row>
-    <row r="1295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1295">
-        <v>5743875</v>
-      </c>
-    </row>
-    <row r="1296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1296">
-        <v>5746000</v>
-      </c>
-    </row>
-    <row r="1297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1297">
-        <v>5788250</v>
-      </c>
-    </row>
-    <row r="1298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1298">
-        <v>5818250</v>
-      </c>
-    </row>
-    <row r="1299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1299">
-        <v>5822050</v>
-      </c>
-    </row>
-    <row r="1300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1300">
-        <v>5851625</v>
-      </c>
-    </row>
-    <row r="1301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1301">
-        <v>5924500</v>
-      </c>
-    </row>
-    <row r="1302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1302">
-        <v>5936125</v>
-      </c>
-    </row>
-    <row r="1303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1303">
-        <v>5969125</v>
-      </c>
-    </row>
-    <row r="1304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1304">
-        <v>5986825</v>
-      </c>
-    </row>
-    <row r="1305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1305">
-        <v>6046625</v>
-      </c>
-    </row>
-    <row r="1306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1306">
-        <v>6062875</v>
-      </c>
-    </row>
-    <row r="1307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1307">
-        <v>6093625</v>
-      </c>
-    </row>
-    <row r="1308" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1308">
-        <v>6096675</v>
-      </c>
-    </row>
-    <row r="1309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1309">
-        <v>6147375</v>
-      </c>
-    </row>
-    <row r="1310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1310">
-        <v>6168500</v>
-      </c>
-    </row>
-    <row r="1311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1311">
-        <v>6189625</v>
-      </c>
-    </row>
-    <row r="1312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1312">
-        <v>6206525</v>
-      </c>
-    </row>
-    <row r="1313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1313">
-        <v>6249625</v>
-      </c>
-    </row>
-    <row r="1314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1314">
-        <v>6253000</v>
-      </c>
-    </row>
-    <row r="1315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1315">
-        <v>6285750</v>
-      </c>
-    </row>
-    <row r="1316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1316">
-        <v>6295250</v>
-      </c>
-    </row>
-    <row r="1317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1317">
-        <v>6371300</v>
-      </c>
-    </row>
-    <row r="1318" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1318">
-        <v>6386900</v>
-      </c>
-    </row>
-    <row r="1319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1319">
-        <v>6400875</v>
-      </c>
-    </row>
-    <row r="1320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1320">
-        <v>6412625</v>
-      </c>
-    </row>
-    <row r="1321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1321">
-        <v>6430250</v>
-      </c>
-    </row>
-    <row r="1322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1322">
-        <v>6464250</v>
-      </c>
-    </row>
-    <row r="1323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1323">
-        <v>6509725</v>
-      </c>
-    </row>
-    <row r="1324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1324">
-        <v>6536075</v>
-      </c>
-    </row>
-    <row r="1325" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1325">
-        <v>6538625</v>
-      </c>
-    </row>
-    <row r="1326" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1326">
-        <v>6574750</v>
-      </c>
-    </row>
-    <row r="1327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1327">
-        <v>6610875</v>
-      </c>
-    </row>
-    <row r="1328" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1328">
-        <v>6612125</v>
-      </c>
-    </row>
-    <row r="1329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1329">
-        <v>6633250</v>
-      </c>
-    </row>
-    <row r="1330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1330">
-        <v>6673875</v>
-      </c>
-    </row>
-    <row r="1331" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1331">
-        <v>6696625</v>
-      </c>
-    </row>
-    <row r="1332" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1332">
-        <v>6700850</v>
-      </c>
-    </row>
-    <row r="1333" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1333">
-        <v>6717750</v>
-      </c>
-    </row>
-    <row r="1334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1334">
-        <v>6738875</v>
-      </c>
-    </row>
-    <row r="1335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1335">
-        <v>6755775</v>
-      </c>
-    </row>
-    <row r="1336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1336">
-        <v>6823375</v>
-      </c>
-    </row>
-    <row r="1337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1337">
-        <v>6907875</v>
-      </c>
-    </row>
-    <row r="1338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1338">
-        <v>6929000</v>
-      </c>
-    </row>
-    <row r="1339" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1339">
-        <v>6972125</v>
-      </c>
-    </row>
-    <row r="1340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1340">
-        <v>7008250</v>
-      </c>
-    </row>
-    <row r="1341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1341">
-        <v>7016125</v>
-      </c>
-    </row>
-    <row r="1342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1342">
-        <v>7034625</v>
-      </c>
-    </row>
-    <row r="1343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1343">
-        <v>7116625</v>
-      </c>
-    </row>
-    <row r="1344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1344">
-        <v>7119125</v>
-      </c>
-    </row>
-    <row r="1345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1345">
-        <v>7123850</v>
-      </c>
-    </row>
-    <row r="1346" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1346">
-        <v>7144250</v>
-      </c>
-    </row>
-    <row r="1347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1347">
-        <v>7148500</v>
-      </c>
-    </row>
-    <row r="1348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1348">
-        <v>7161375</v>
-      </c>
-    </row>
-    <row r="1349" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1349">
-        <v>7297250</v>
-      </c>
-    </row>
-    <row r="1350" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1350">
-        <v>7309250</v>
-      </c>
-    </row>
-    <row r="1351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1351">
-        <v>7333375</v>
-      </c>
-    </row>
-    <row r="1352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1352">
-        <v>7351500</v>
-      </c>
-    </row>
-    <row r="1353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1353">
-        <v>7372625</v>
-      </c>
-    </row>
-    <row r="1354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1354">
-        <v>7457125</v>
-      </c>
-    </row>
-    <row r="1355" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1355">
-        <v>7469800</v>
-      </c>
-    </row>
-    <row r="1356" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1356">
-        <v>7492325</v>
-      </c>
-    </row>
-    <row r="1357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1357">
-        <v>7514000</v>
-      </c>
-    </row>
-    <row r="1358" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1358">
-        <v>7520500</v>
-      </c>
-    </row>
-    <row r="1359" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1359">
-        <v>7524725</v>
-      </c>
-    </row>
-    <row r="1360" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1360">
-        <v>7541625</v>
-      </c>
-    </row>
-    <row r="1361" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1361">
-        <v>7647250</v>
-      </c>
-    </row>
-    <row r="1362" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1362">
-        <v>7658500</v>
-      </c>
-    </row>
-    <row r="1363" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1363">
-        <v>7674125</v>
-      </c>
-    </row>
-    <row r="1364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1364">
-        <v>7731750</v>
-      </c>
-    </row>
-    <row r="1365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1365">
-        <v>7774625</v>
-      </c>
-    </row>
-    <row r="1366" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1366">
-        <v>7779250</v>
-      </c>
-    </row>
-    <row r="1367" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1367">
-        <v>7795125</v>
-      </c>
-    </row>
-    <row r="1368" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1368">
-        <v>7837375</v>
-      </c>
-    </row>
-    <row r="1369" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1369">
-        <v>7875250</v>
-      </c>
-    </row>
-    <row r="1370" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1370">
-        <v>7879625</v>
-      </c>
-    </row>
-    <row r="1371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1371">
-        <v>7900750</v>
-      </c>
-    </row>
-    <row r="1372" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1372">
-        <v>7907125</v>
-      </c>
-    </row>
-    <row r="1373" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1373">
-        <v>7911375</v>
-      </c>
-    </row>
-    <row r="1374" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1374">
-        <v>7926425</v>
-      </c>
-    </row>
-    <row r="1375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1375">
-        <v>8019050</v>
-      </c>
-    </row>
-    <row r="1376" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1376">
-        <v>8019750</v>
-      </c>
-    </row>
-    <row r="1377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1377">
-        <v>8128900</v>
-      </c>
-    </row>
-    <row r="1378" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1378">
-        <v>8154250</v>
-      </c>
-    </row>
-    <row r="1379" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1379">
-        <v>8164250</v>
-      </c>
-    </row>
-    <row r="1380" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1380">
-        <v>8183825</v>
-      </c>
-    </row>
-    <row r="1381" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1381">
-        <v>8194875</v>
-      </c>
-    </row>
-    <row r="1382" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1382">
-        <v>8196500</v>
-      </c>
-    </row>
-    <row r="1383" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1383">
-        <v>8199750</v>
-      </c>
-    </row>
-    <row r="1384" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1384">
-        <v>8217625</v>
-      </c>
-    </row>
-    <row r="1385" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1385">
-        <v>8259875</v>
-      </c>
-    </row>
-    <row r="1386" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1386">
-        <v>8272625</v>
-      </c>
-    </row>
-    <row r="1387" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1387">
-        <v>8323250</v>
-      </c>
-    </row>
-    <row r="1388" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1388">
-        <v>8381000</v>
-      </c>
-    </row>
-    <row r="1389" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1389">
-        <v>8386625</v>
-      </c>
-    </row>
-    <row r="1390" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1390">
-        <v>8403525</v>
-      </c>
-    </row>
-    <row r="1391" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1391">
-        <v>8417125</v>
-      </c>
-    </row>
-    <row r="1392" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1392">
-        <v>8453250</v>
-      </c>
-    </row>
-    <row r="1393" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1393">
-        <v>8471125</v>
-      </c>
-    </row>
-    <row r="1394" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1394">
-        <v>8534500</v>
-      </c>
-    </row>
-    <row r="1395" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1395">
-        <v>8576750</v>
-      </c>
-    </row>
-    <row r="1396" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1396">
-        <v>8597875</v>
-      </c>
-    </row>
-    <row r="1397" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1397">
-        <v>8619000</v>
-      </c>
-    </row>
-    <row r="1398" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1398">
-        <v>8620250</v>
-      </c>
-    </row>
-    <row r="1399" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1399">
-        <v>8623225</v>
-      </c>
-    </row>
-    <row r="1400" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1400">
-        <v>8640125</v>
-      </c>
-    </row>
-    <row r="1401" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1401">
-        <v>8659625</v>
-      </c>
-    </row>
-    <row r="1402" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1402">
-        <v>8682375</v>
-      </c>
-    </row>
-    <row r="1403" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1403">
-        <v>8706125</v>
-      </c>
-    </row>
-    <row r="1404" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1404">
-        <v>8727375</v>
-      </c>
-    </row>
-    <row r="1405" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1405">
-        <v>8733075</v>
-      </c>
-    </row>
-    <row r="1406" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1406">
-        <v>8814500</v>
-      </c>
-    </row>
-    <row r="1407" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1407">
-        <v>8886750</v>
-      </c>
-    </row>
-    <row r="1408" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1408">
-        <v>8893625</v>
-      </c>
-    </row>
-    <row r="1409" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1409">
-        <v>8898500</v>
-      </c>
-    </row>
-    <row r="1410" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1410">
-        <v>8922875</v>
-      </c>
-    </row>
-    <row r="1411" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1411">
-        <v>8957000</v>
-      </c>
-    </row>
-    <row r="1412" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1412">
-        <v>8966225</v>
-      </c>
-    </row>
-    <row r="1413" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1413">
-        <v>9007700</v>
-      </c>
-    </row>
-    <row r="1414" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1414">
-        <v>9020375</v>
-      </c>
-    </row>
-    <row r="1415" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1415">
-        <v>9069625</v>
-      </c>
-    </row>
-    <row r="1416" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1416">
-        <v>9089050</v>
-      </c>
-    </row>
-    <row r="1417" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1417">
-        <v>9129250</v>
-      </c>
-    </row>
-    <row r="1418" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1418">
-        <v>9147125</v>
-      </c>
-    </row>
-    <row r="1419" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1419">
-        <v>9210500</v>
-      </c>
-    </row>
-    <row r="1420" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1420">
-        <v>9252750</v>
-      </c>
-    </row>
-    <row r="1421" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1421">
-        <v>9284125</v>
-      </c>
-    </row>
-    <row r="1422" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1422">
-        <v>9356125</v>
-      </c>
-    </row>
-    <row r="1423" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1423">
-        <v>9356375</v>
-      </c>
-    </row>
-    <row r="1424" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1424">
-        <v>9379500</v>
-      </c>
-    </row>
-    <row r="1425" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1425">
-        <v>9428625</v>
-      </c>
-    </row>
-    <row r="1426" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1426">
-        <v>9442875</v>
-      </c>
-    </row>
-    <row r="1427" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1427">
-        <v>9485125</v>
-      </c>
-    </row>
-    <row r="1428" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1428">
-        <v>9502025</v>
-      </c>
-    </row>
-    <row r="1429" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1429">
-        <v>9527375</v>
-      </c>
-    </row>
-    <row r="1430" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1430">
-        <v>9548500</v>
-      </c>
-    </row>
-    <row r="1431" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1431">
-        <v>9556950</v>
-      </c>
-    </row>
-    <row r="1432" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1432">
-        <v>9566375</v>
-      </c>
-    </row>
-    <row r="1433" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1433">
-        <v>9580350</v>
-      </c>
-    </row>
-    <row r="1434" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1434">
-        <v>9645375</v>
-      </c>
-    </row>
-    <row r="1435" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1435">
-        <v>9654125</v>
-      </c>
-    </row>
-    <row r="1436" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1436">
-        <v>9675250</v>
-      </c>
-    </row>
-    <row r="1437" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1437">
-        <v>9696375</v>
-      </c>
-    </row>
-    <row r="1438" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1438">
-        <v>9717625</v>
-      </c>
-    </row>
-    <row r="1439" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1439">
-        <v>9738625</v>
-      </c>
-    </row>
-    <row r="1440" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1440">
-        <v>9776650</v>
-      </c>
-    </row>
-    <row r="1441" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1441">
-        <v>9802000</v>
-      </c>
-    </row>
-    <row r="1442" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1442">
-        <v>9844250</v>
-      </c>
-    </row>
-    <row r="1443" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1443">
-        <v>9862125</v>
-      </c>
-    </row>
-    <row r="1444" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1444">
-        <v>9898250</v>
-      </c>
-    </row>
-    <row r="1445" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1445">
-        <v>9925250</v>
-      </c>
-    </row>
-    <row r="1446" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1446">
-        <v>9941425</v>
-      </c>
-    </row>
-    <row r="1447" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1447">
-        <v>9949875</v>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>5</v>
+      </c>
+      <c r="F1">
+        <v>13</v>
+      </c>
+      <c r="G1">
+        <v>17</v>
+      </c>
+      <c r="H1">
+        <f>D1^D2*E1^E2*F1^F2*G1^G2</f>
+        <v>718250</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <f>PRODUCT(D3:G3)*4</f>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -12914,10 +12673,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF15C446-4CFF-4FAD-9E08-A893C0935C6D}">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12925,9 +12684,11 @@
     <col min="3" max="3" width="17.42578125" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" customWidth="1"/>
     <col min="5" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -12946,8 +12707,20 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1">
+        <v>469625</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1345</v>
       </c>
@@ -12969,8 +12742,14 @@
         <f>$D$1*A2</f>
         <v>483023125</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H2" s="8">
+        <v>8381</v>
+      </c>
+      <c r="I2">
+        <v>-8092</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2865</v>
       </c>
@@ -12988,8 +12767,14 @@
         <f t="shared" ref="F3:F53" si="1">$D$1*A3</f>
         <v>1028893125</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H3" s="8">
+        <v>10200</v>
+      </c>
+      <c r="I3">
+        <v>-9775</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6409</v>
       </c>
@@ -13007,8 +12792,14 @@
         <f t="shared" si="1"/>
         <v>2301632125</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H4" s="8">
+        <v>12675</v>
+      </c>
+      <c r="I4">
+        <v>-12025</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>7800</v>
       </c>
@@ -13026,8 +12817,14 @@
         <f t="shared" si="1"/>
         <v>2801175000</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H5" s="8">
+        <v>14100</v>
+      </c>
+      <c r="I5">
+        <v>-13300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>11106</v>
       </c>
@@ -13045,8 +12842,14 @@
         <f t="shared" si="1"/>
         <v>3988442250</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H6" s="8">
+        <v>21470</v>
+      </c>
+      <c r="I6">
+        <v>-19665</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>12702</v>
       </c>
@@ -13064,8 +12867,14 @@
         <f t="shared" si="1"/>
         <v>4561605750</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H7" s="8">
+        <v>23375</v>
+      </c>
+      <c r="I7">
+        <v>-21250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>17875</v>
       </c>
@@ -13083,8 +12892,14 @@
         <f t="shared" si="1"/>
         <v>6419359375</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H8" s="8">
+        <v>27455</v>
+      </c>
+      <c r="I8">
+        <v>-24565</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>20995</v>
       </c>
@@ -13102,8 +12917,14 @@
         <f t="shared" si="1"/>
         <v>7539829375</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H9" s="8">
+        <v>32487</v>
+      </c>
+      <c r="I9">
+        <v>-28509</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>24843</v>
       </c>
@@ -13121,8 +12942,14 @@
         <f t="shared" si="1"/>
         <v>8921742375</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H10" s="8">
+        <v>38675</v>
+      </c>
+      <c r="I10">
+        <v>-33150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>26350</v>
       </c>
@@ -13140,8 +12967,14 @@
         <f t="shared" si="1"/>
         <v>9462943750</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H11" s="8">
+        <v>41384</v>
+      </c>
+      <c r="I11">
+        <v>-35112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>28050</v>
       </c>
@@ -13159,8 +12992,14 @@
         <f t="shared" si="1"/>
         <v>10073456250</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H12" s="8">
+        <v>48195</v>
+      </c>
+      <c r="I12">
+        <v>-39865</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>29575</v>
       </c>
@@ -13178,8 +13017,14 @@
         <f t="shared" si="1"/>
         <v>10621121875</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H13" s="8">
+        <v>50250</v>
+      </c>
+      <c r="I13">
+        <v>-41250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>36855</v>
       </c>
@@ -13197,8 +13042,14 @@
         <f t="shared" si="1"/>
         <v>13235551875</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H14" s="8">
+        <v>53040</v>
+      </c>
+      <c r="I14">
+        <v>-43095</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>40560</v>
       </c>
@@ -13216,8 +13067,14 @@
         <f t="shared" si="1"/>
         <v>14566110000</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H15" s="8">
+        <v>58424</v>
+      </c>
+      <c r="I15">
+        <v>-46543</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>48100</v>
       </c>
@@ -13235,8 +13092,14 @@
         <f t="shared" si="1"/>
         <v>17273912500</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H16" s="8">
+        <v>60047</v>
+      </c>
+      <c r="I16">
+        <v>-47554</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>49725</v>
       </c>
@@ -13254,8 +13117,14 @@
         <f t="shared" si="1"/>
         <v>17857490625</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H17" s="8">
+        <v>62900</v>
+      </c>
+      <c r="I17">
+        <v>-49300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>53196</v>
       </c>
@@ -13273,8 +13142,14 @@
         <f t="shared" si="1"/>
         <v>19104013500</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H18" s="8">
+        <v>65025</v>
+      </c>
+      <c r="I18">
+        <v>-50575</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>57460</v>
       </c>
@@ -13292,8 +13167,14 @@
         <f t="shared" si="1"/>
         <v>20635322500</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H19" s="8">
+        <v>69564</v>
+      </c>
+      <c r="I19">
+        <v>-53227</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>59125</v>
       </c>
@@ -13311,8 +13192,14 @@
         <f t="shared" si="1"/>
         <v>21233265625</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H20" s="8">
+        <v>75140</v>
+      </c>
+      <c r="I20">
+        <v>-56355</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>61000</v>
       </c>
@@ -13330,8 +13217,14 @@
         <f t="shared" si="1"/>
         <v>21906625000</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H21" s="8">
+        <v>80270</v>
+      </c>
+      <c r="I21">
+        <v>-59110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>67041</v>
       </c>
@@ -13349,8 +13242,14 @@
         <f t="shared" si="1"/>
         <v>24076099125</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H22" s="8">
+        <v>81965</v>
+      </c>
+      <c r="I22">
+        <v>-59995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>71050</v>
       </c>
@@ -13368,8 +13267,14 @@
         <f t="shared" si="1"/>
         <v>25515831250</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H23" s="8">
+        <v>87669</v>
+      </c>
+      <c r="I23">
+        <v>-62883</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>72975</v>
       </c>
@@ -13387,8 +13292,14 @@
         <f t="shared" si="1"/>
         <v>26207146875</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H24" s="8">
+        <v>90675</v>
+      </c>
+      <c r="I24">
+        <v>-64350</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>74698</v>
       </c>
@@ -13406,8 +13317,14 @@
         <f t="shared" si="1"/>
         <v>26825919250</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H25" s="8">
+        <v>92400</v>
+      </c>
+      <c r="I25">
+        <v>-65175</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>79170</v>
       </c>
@@ -13425,8 +13342,14 @@
         <f t="shared" si="1"/>
         <v>28431926250</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H26" s="8">
+        <v>97682</v>
+      </c>
+      <c r="I26">
+        <v>-67626</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>82875</v>
       </c>
@@ -13444,8 +13367,14 @@
         <f t="shared" si="1"/>
         <v>29762484375</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H27" s="8">
+        <v>103530</v>
+      </c>
+      <c r="I27">
+        <v>-70210</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>84630</v>
       </c>
@@ -13463,8 +13392,14 @@
         <f t="shared" si="1"/>
         <v>30392748750</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H28" s="8">
+        <v>108375</v>
+      </c>
+      <c r="I28">
+        <v>-72250</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>89182</v>
       </c>
@@ -13482,8 +13417,14 @@
         <f t="shared" si="1"/>
         <v>32027485750</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H29" s="8">
+        <v>110670</v>
+      </c>
+      <c r="I29">
+        <v>-73185</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>91171</v>
       </c>
@@ -13501,8 +13442,14 @@
         <f t="shared" si="1"/>
         <v>32741785375</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H30" s="8">
+        <v>121550</v>
+      </c>
+      <c r="I30">
+        <v>-77350</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>92950</v>
       </c>
@@ -13520,8 +13467,14 @@
         <f t="shared" si="1"/>
         <v>33380668750</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H31" s="8">
+        <v>124700</v>
+      </c>
+      <c r="I31">
+        <v>-78475</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>97149</v>
       </c>
@@ -13539,8 +13492,14 @@
         <f t="shared" si="1"/>
         <v>34888634625</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H32" s="8">
+        <v>127041</v>
+      </c>
+      <c r="I32">
+        <v>-79288</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>105625</v>
       </c>
@@ -13558,8 +13517,14 @@
         <f t="shared" si="1"/>
         <v>37932578125</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H33" s="8">
+        <v>134930</v>
+      </c>
+      <c r="I33">
+        <v>-81885</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>107440</v>
       </c>
@@ -13577,8 +13542,14 @@
         <f t="shared" si="1"/>
         <v>38584390000</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H34" s="8">
+        <v>138125</v>
+      </c>
+      <c r="I34">
+        <v>-82875</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>109480</v>
       </c>
@@ -13596,8 +13567,14 @@
         <f t="shared" si="1"/>
         <v>39317005000</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H35" s="8">
+        <v>149328</v>
+      </c>
+      <c r="I35">
+        <v>-86071</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>114192</v>
       </c>
@@ -13615,8 +13592,14 @@
         <f t="shared" si="1"/>
         <v>41009202000</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H36" s="8">
+        <v>151725</v>
+      </c>
+      <c r="I36">
+        <v>-86700</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>116025</v>
       </c>
@@ -13634,8 +13617,14 @@
         <f t="shared" si="1"/>
         <v>41667478125</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H37" s="8">
+        <v>156825</v>
+      </c>
+      <c r="I37">
+        <v>-87975</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>119925</v>
       </c>
@@ -13653,8 +13642,14 @@
         <f t="shared" si="1"/>
         <v>43068065625</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H38" s="8">
+        <v>159236</v>
+      </c>
+      <c r="I38">
+        <v>-88548</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>126540</v>
       </c>
@@ -13672,8 +13667,14 @@
         <f t="shared" si="1"/>
         <v>45443677500</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H39" s="8">
+        <v>168750</v>
+      </c>
+      <c r="I39">
+        <v>-90625</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>128620</v>
       </c>
@@ -13691,8 +13692,14 @@
         <f t="shared" si="1"/>
         <v>46190657500</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H40" s="8">
+        <v>170625</v>
+      </c>
+      <c r="I40">
+        <v>-91000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>132990</v>
       </c>
@@ -13710,8 +13717,14 @@
         <f t="shared" si="1"/>
         <v>47760033750</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H41" s="8">
+        <v>173910</v>
+      </c>
+      <c r="I41">
+        <v>-91630</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>139675</v>
       </c>
@@ -13729,8 +13742,14 @@
         <f t="shared" si="1"/>
         <v>50160784375</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H42" s="8">
+        <v>180206</v>
+      </c>
+      <c r="I42">
+        <v>-92742</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>141775</v>
       </c>
@@ -13748,8 +13767,14 @@
         <f t="shared" si="1"/>
         <v>50914946875</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H43" s="8">
+        <v>182093</v>
+      </c>
+      <c r="I43">
+        <v>-93051</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>143650</v>
       </c>
@@ -13767,8 +13792,14 @@
         <f t="shared" si="1"/>
         <v>51588306250</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H44" s="8">
+        <v>187850</v>
+      </c>
+      <c r="I44">
+        <v>-93925</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>145527</v>
       </c>
@@ -13786,8 +13817,14 @@
         <f t="shared" si="1"/>
         <v>52262383875</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H45" s="8">
+        <v>199410</v>
+      </c>
+      <c r="I45">
+        <v>-95370</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>147634</v>
       </c>
@@ -13805,8 +13842,14 @@
         <f t="shared" si="1"/>
         <v>53019060250</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H46" s="8">
+        <v>201875</v>
+      </c>
+      <c r="I46">
+        <v>-95625</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>152490</v>
       </c>
@@ -13824,8 +13867,14 @@
         <f t="shared" si="1"/>
         <v>54762971250</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H47" s="8">
+        <v>205205</v>
+      </c>
+      <c r="I47">
+        <v>-95940</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>154375</v>
       </c>
@@ -13843,8 +13892,14 @@
         <f t="shared" si="1"/>
         <v>55439921875</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H48" s="8">
+        <v>207110</v>
+      </c>
+      <c r="I48">
+        <v>-96105</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>163254</v>
       </c>
@@ -13862,8 +13917,14 @@
         <f t="shared" si="1"/>
         <v>58628592750</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H49" s="8">
+        <v>213486</v>
+      </c>
+      <c r="I49">
+        <v>-96577</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>167700</v>
       </c>
@@ -13881,8 +13942,14 @@
         <f t="shared" si="1"/>
         <v>60225262500</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H50" s="8">
+        <v>216825</v>
+      </c>
+      <c r="I50">
+        <v>-96775</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>171717</v>
       </c>
@@ -13900,8 +13967,14 @@
         <f t="shared" si="1"/>
         <v>61667867625</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H51" s="8">
+        <v>219300</v>
+      </c>
+      <c r="I51">
+        <v>-96900</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>176605</v>
       </c>
@@ -13919,8 +13992,14 @@
         <f t="shared" si="1"/>
         <v>63423270625</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H52" s="8">
+        <v>224553</v>
+      </c>
+      <c r="I52">
+        <v>-97104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>178500</v>
       </c>
@@ -13937,6 +14016,12 @@
       <c r="F53" s="2">
         <f t="shared" si="1"/>
         <v>64103812500</v>
+      </c>
+      <c r="H53" s="8">
+        <v>230945</v>
+      </c>
+      <c r="I53">
+        <v>-97240</v>
       </c>
     </row>
   </sheetData>
